--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_223.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_223.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32272-d76696-Reviews-DoubleTree_by_Hilton_Los_Angeles_Westside-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1090</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Doubletree-By-Hilton-Hotel-Los-Angeles-Westside.h21939.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_223.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_223.xlsx
@@ -5343,7 +5343,7 @@
     <t>Jessica at the Front Desk is such a sweetheart! So professional and attentive to every detail! She is truly dedicated to exceeding guest expectations! A real pearl in the world of Hospitality!Adan at the breakfast will welcome you with the most sincere smile ever and will do everything to make this important moment, when you are starting your day, right. He is always thinking a step ahead,making the whole experience so enjoyable!Overall, what a great people working in this wonderful hotel!More</t>
   </si>
   <si>
-    <t>maureenb870</t>
+    <t>Maureen B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d76696-r402215224-DoubleTree_by_Hilton_Los_Angeles_Westside-Culver_City_California.html</t>
@@ -13352,7 +13352,7 @@
         <v>11526</v>
       </c>
       <c r="B3" t="n">
-        <v>140986</v>
+        <v>172150</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -13423,7 +13423,7 @@
         <v>11526</v>
       </c>
       <c r="B4" t="n">
-        <v>140987</v>
+        <v>172151</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -13492,7 +13492,7 @@
         <v>11526</v>
       </c>
       <c r="B5" t="n">
-        <v>140988</v>
+        <v>172152</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -13557,7 +13557,7 @@
         <v>11526</v>
       </c>
       <c r="B6" t="n">
-        <v>140989</v>
+        <v>172153</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -13622,7 +13622,7 @@
         <v>11526</v>
       </c>
       <c r="B7" t="n">
-        <v>140990</v>
+        <v>172154</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
@@ -13697,7 +13697,7 @@
         <v>11526</v>
       </c>
       <c r="B8" t="n">
-        <v>140991</v>
+        <v>172155</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
@@ -13772,7 +13772,7 @@
         <v>11526</v>
       </c>
       <c r="B9" t="n">
-        <v>140992</v>
+        <v>172156</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
@@ -13843,7 +13843,7 @@
         <v>11526</v>
       </c>
       <c r="B10" t="n">
-        <v>140993</v>
+        <v>172157</v>
       </c>
       <c r="C10" t="s">
         <v>113</v>
@@ -13918,7 +13918,7 @@
         <v>11526</v>
       </c>
       <c r="B11" t="n">
-        <v>140994</v>
+        <v>172158</v>
       </c>
       <c r="C11" t="s">
         <v>122</v>
@@ -13983,7 +13983,7 @@
         <v>11526</v>
       </c>
       <c r="B12" t="n">
-        <v>140995</v>
+        <v>172159</v>
       </c>
       <c r="C12" t="s">
         <v>131</v>
@@ -14058,7 +14058,7 @@
         <v>11526</v>
       </c>
       <c r="B13" t="n">
-        <v>140996</v>
+        <v>141001</v>
       </c>
       <c r="C13" t="s">
         <v>138</v>
@@ -14123,7 +14123,7 @@
         <v>11526</v>
       </c>
       <c r="B14" t="n">
-        <v>140997</v>
+        <v>172160</v>
       </c>
       <c r="C14" t="s">
         <v>146</v>
@@ -14269,7 +14269,7 @@
         <v>11526</v>
       </c>
       <c r="B16" t="n">
-        <v>140998</v>
+        <v>172161</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
@@ -14484,7 +14484,7 @@
         <v>11526</v>
       </c>
       <c r="B19" t="n">
-        <v>140999</v>
+        <v>172162</v>
       </c>
       <c r="C19" t="s">
         <v>193</v>
@@ -14549,7 +14549,7 @@
         <v>11526</v>
       </c>
       <c r="B20" t="n">
-        <v>141000</v>
+        <v>172163</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
@@ -14610,7 +14610,7 @@
         <v>11526</v>
       </c>
       <c r="B21" t="n">
-        <v>141001</v>
+        <v>172164</v>
       </c>
       <c r="C21" t="s">
         <v>211</v>
@@ -14681,7 +14681,7 @@
         <v>11526</v>
       </c>
       <c r="B22" t="n">
-        <v>141002</v>
+        <v>172165</v>
       </c>
       <c r="C22" t="s">
         <v>217</v>
@@ -14746,7 +14746,7 @@
         <v>11526</v>
       </c>
       <c r="B23" t="n">
-        <v>141003</v>
+        <v>172166</v>
       </c>
       <c r="C23" t="s">
         <v>224</v>
@@ -14817,7 +14817,7 @@
         <v>11526</v>
       </c>
       <c r="B24" t="n">
-        <v>141004</v>
+        <v>172167</v>
       </c>
       <c r="C24" t="s">
         <v>235</v>
@@ -14888,7 +14888,7 @@
         <v>11526</v>
       </c>
       <c r="B25" t="n">
-        <v>141005</v>
+        <v>172168</v>
       </c>
       <c r="C25" t="s">
         <v>243</v>
@@ -15024,7 +15024,7 @@
         <v>11526</v>
       </c>
       <c r="B27" t="n">
-        <v>141006</v>
+        <v>172169</v>
       </c>
       <c r="C27" t="s">
         <v>259</v>
@@ -15095,7 +15095,7 @@
         <v>11526</v>
       </c>
       <c r="B28" t="n">
-        <v>141007</v>
+        <v>172170</v>
       </c>
       <c r="C28" t="s">
         <v>268</v>
@@ -15166,7 +15166,7 @@
         <v>11526</v>
       </c>
       <c r="B29" t="n">
-        <v>141008</v>
+        <v>172171</v>
       </c>
       <c r="C29" t="s">
         <v>278</v>
@@ -15237,7 +15237,7 @@
         <v>11526</v>
       </c>
       <c r="B30" t="n">
-        <v>141009</v>
+        <v>172172</v>
       </c>
       <c r="C30" t="s">
         <v>287</v>
@@ -15312,7 +15312,7 @@
         <v>11526</v>
       </c>
       <c r="B31" t="n">
-        <v>141010</v>
+        <v>172173</v>
       </c>
       <c r="C31" t="s">
         <v>294</v>
@@ -15387,7 +15387,7 @@
         <v>11526</v>
       </c>
       <c r="B32" t="n">
-        <v>141011</v>
+        <v>172174</v>
       </c>
       <c r="C32" t="s">
         <v>301</v>
@@ -15511,7 +15511,7 @@
         <v>11526</v>
       </c>
       <c r="B34" t="n">
-        <v>141012</v>
+        <v>172175</v>
       </c>
       <c r="C34" t="s">
         <v>312</v>
@@ -15580,7 +15580,7 @@
         <v>11526</v>
       </c>
       <c r="B35" t="n">
-        <v>141013</v>
+        <v>172176</v>
       </c>
       <c r="C35" t="s">
         <v>320</v>
@@ -15655,7 +15655,7 @@
         <v>11526</v>
       </c>
       <c r="B36" t="n">
-        <v>141014</v>
+        <v>172177</v>
       </c>
       <c r="C36" t="s">
         <v>329</v>
@@ -15730,7 +15730,7 @@
         <v>11526</v>
       </c>
       <c r="B37" t="n">
-        <v>141015</v>
+        <v>172178</v>
       </c>
       <c r="C37" t="s">
         <v>337</v>
@@ -15805,7 +15805,7 @@
         <v>11526</v>
       </c>
       <c r="B38" t="n">
-        <v>141016</v>
+        <v>172179</v>
       </c>
       <c r="C38" t="s">
         <v>344</v>
@@ -15880,7 +15880,7 @@
         <v>11526</v>
       </c>
       <c r="B39" t="n">
-        <v>141017</v>
+        <v>172180</v>
       </c>
       <c r="C39" t="s">
         <v>353</v>
@@ -15955,7 +15955,7 @@
         <v>11526</v>
       </c>
       <c r="B40" t="n">
-        <v>141018</v>
+        <v>172181</v>
       </c>
       <c r="C40" t="s">
         <v>362</v>
@@ -16026,7 +16026,7 @@
         <v>11526</v>
       </c>
       <c r="B41" t="n">
-        <v>141019</v>
+        <v>172182</v>
       </c>
       <c r="C41" t="s">
         <v>369</v>
@@ -16091,7 +16091,7 @@
         <v>11526</v>
       </c>
       <c r="B42" t="n">
-        <v>141020</v>
+        <v>172183</v>
       </c>
       <c r="C42" t="s">
         <v>378</v>
@@ -16166,7 +16166,7 @@
         <v>11526</v>
       </c>
       <c r="B43" t="n">
-        <v>141021</v>
+        <v>172184</v>
       </c>
       <c r="C43" t="s">
         <v>385</v>
@@ -16241,7 +16241,7 @@
         <v>11526</v>
       </c>
       <c r="B44" t="n">
-        <v>141022</v>
+        <v>172185</v>
       </c>
       <c r="C44" t="s">
         <v>392</v>
@@ -16466,7 +16466,7 @@
         <v>11526</v>
       </c>
       <c r="B47" t="n">
-        <v>141023</v>
+        <v>172186</v>
       </c>
       <c r="C47" t="s">
         <v>413</v>
@@ -16681,7 +16681,7 @@
         <v>11526</v>
       </c>
       <c r="B50" t="n">
-        <v>141025</v>
+        <v>172187</v>
       </c>
       <c r="C50" t="s">
         <v>436</v>
@@ -16756,7 +16756,7 @@
         <v>11526</v>
       </c>
       <c r="B51" t="n">
-        <v>141026</v>
+        <v>172188</v>
       </c>
       <c r="C51" t="s">
         <v>443</v>
@@ -16831,7 +16831,7 @@
         <v>11526</v>
       </c>
       <c r="B52" t="n">
-        <v>141027</v>
+        <v>172189</v>
       </c>
       <c r="C52" t="s">
         <v>450</v>
@@ -16906,7 +16906,7 @@
         <v>11526</v>
       </c>
       <c r="B53" t="n">
-        <v>141028</v>
+        <v>172190</v>
       </c>
       <c r="C53" t="s">
         <v>456</v>
@@ -16975,7 +16975,7 @@
         <v>11526</v>
       </c>
       <c r="B54" t="n">
-        <v>141029</v>
+        <v>172191</v>
       </c>
       <c r="C54" t="s">
         <v>466</v>
@@ -17125,7 +17125,7 @@
         <v>11526</v>
       </c>
       <c r="B56" t="n">
-        <v>141030</v>
+        <v>172192</v>
       </c>
       <c r="C56" t="s">
         <v>479</v>
@@ -17190,7 +17190,7 @@
         <v>11526</v>
       </c>
       <c r="B57" t="n">
-        <v>141031</v>
+        <v>172193</v>
       </c>
       <c r="C57" t="s">
         <v>488</v>
@@ -17401,7 +17401,7 @@
         <v>11526</v>
       </c>
       <c r="B60" t="n">
-        <v>141032</v>
+        <v>172194</v>
       </c>
       <c r="C60" t="s">
         <v>512</v>
@@ -17470,7 +17470,7 @@
         <v>11526</v>
       </c>
       <c r="B61" t="n">
-        <v>141033</v>
+        <v>172195</v>
       </c>
       <c r="C61" t="s">
         <v>522</v>
@@ -17539,7 +17539,7 @@
         <v>11526</v>
       </c>
       <c r="B62" t="n">
-        <v>141034</v>
+        <v>172196</v>
       </c>
       <c r="C62" t="s">
         <v>532</v>
@@ -17673,7 +17673,7 @@
         <v>11526</v>
       </c>
       <c r="B64" t="n">
-        <v>141035</v>
+        <v>172197</v>
       </c>
       <c r="C64" t="s">
         <v>546</v>
@@ -17748,7 +17748,7 @@
         <v>11526</v>
       </c>
       <c r="B65" t="n">
-        <v>141036</v>
+        <v>172198</v>
       </c>
       <c r="C65" t="s">
         <v>555</v>
@@ -17823,7 +17823,7 @@
         <v>11526</v>
       </c>
       <c r="B66" t="n">
-        <v>141037</v>
+        <v>172199</v>
       </c>
       <c r="C66" t="s">
         <v>562</v>
@@ -17898,7 +17898,7 @@
         <v>11526</v>
       </c>
       <c r="B67" t="n">
-        <v>141038</v>
+        <v>172200</v>
       </c>
       <c r="C67" t="s">
         <v>569</v>
@@ -17973,7 +17973,7 @@
         <v>11526</v>
       </c>
       <c r="B68" t="n">
-        <v>141039</v>
+        <v>172201</v>
       </c>
       <c r="C68" t="s">
         <v>578</v>
@@ -18198,7 +18198,7 @@
         <v>11526</v>
       </c>
       <c r="B71" t="n">
-        <v>141040</v>
+        <v>172202</v>
       </c>
       <c r="C71" t="s">
         <v>602</v>
@@ -18269,7 +18269,7 @@
         <v>11526</v>
       </c>
       <c r="B72" t="n">
-        <v>141041</v>
+        <v>172203</v>
       </c>
       <c r="C72" t="s">
         <v>612</v>
@@ -18415,7 +18415,7 @@
         <v>11526</v>
       </c>
       <c r="B74" t="n">
-        <v>140995</v>
+        <v>141001</v>
       </c>
       <c r="C74" t="s">
         <v>138</v>
@@ -18490,7 +18490,7 @@
         <v>11526</v>
       </c>
       <c r="B75" t="n">
-        <v>141042</v>
+        <v>172204</v>
       </c>
       <c r="C75" t="s">
         <v>631</v>
@@ -18565,7 +18565,7 @@
         <v>11526</v>
       </c>
       <c r="B76" t="n">
-        <v>141043</v>
+        <v>172205</v>
       </c>
       <c r="C76" t="s">
         <v>638</v>
@@ -18640,7 +18640,7 @@
         <v>11526</v>
       </c>
       <c r="B77" t="n">
-        <v>141044</v>
+        <v>172206</v>
       </c>
       <c r="C77" t="s">
         <v>647</v>
@@ -18715,7 +18715,7 @@
         <v>11526</v>
       </c>
       <c r="B78" t="n">
-        <v>141045</v>
+        <v>172207</v>
       </c>
       <c r="C78" t="s">
         <v>656</v>
@@ -18790,7 +18790,7 @@
         <v>11526</v>
       </c>
       <c r="B79" t="n">
-        <v>141046</v>
+        <v>172208</v>
       </c>
       <c r="C79" t="s">
         <v>662</v>
@@ -18859,7 +18859,7 @@
         <v>11526</v>
       </c>
       <c r="B80" t="n">
-        <v>141047</v>
+        <v>172209</v>
       </c>
       <c r="C80" t="s">
         <v>671</v>
@@ -18924,7 +18924,7 @@
         <v>11526</v>
       </c>
       <c r="B81" t="n">
-        <v>141048</v>
+        <v>172210</v>
       </c>
       <c r="C81" t="s">
         <v>680</v>
@@ -18995,7 +18995,7 @@
         <v>11526</v>
       </c>
       <c r="B82" t="n">
-        <v>141049</v>
+        <v>172211</v>
       </c>
       <c r="C82" t="s">
         <v>687</v>
@@ -19064,7 +19064,7 @@
         <v>11526</v>
       </c>
       <c r="B83" t="n">
-        <v>141050</v>
+        <v>172212</v>
       </c>
       <c r="C83" t="s">
         <v>696</v>
@@ -19139,7 +19139,7 @@
         <v>11526</v>
       </c>
       <c r="B84" t="n">
-        <v>141051</v>
+        <v>172213</v>
       </c>
       <c r="C84" t="s">
         <v>705</v>
@@ -19212,7 +19212,7 @@
         <v>11526</v>
       </c>
       <c r="B85" t="n">
-        <v>141052</v>
+        <v>172214</v>
       </c>
       <c r="C85" t="s">
         <v>714</v>
@@ -19287,7 +19287,7 @@
         <v>11526</v>
       </c>
       <c r="B86" t="n">
-        <v>141053</v>
+        <v>172215</v>
       </c>
       <c r="C86" t="s">
         <v>723</v>
@@ -19362,7 +19362,7 @@
         <v>11526</v>
       </c>
       <c r="B87" t="n">
-        <v>141054</v>
+        <v>172216</v>
       </c>
       <c r="C87" t="s">
         <v>732</v>
@@ -19437,7 +19437,7 @@
         <v>11526</v>
       </c>
       <c r="B88" t="n">
-        <v>141055</v>
+        <v>172217</v>
       </c>
       <c r="C88" t="s">
         <v>738</v>
@@ -19512,7 +19512,7 @@
         <v>11526</v>
       </c>
       <c r="B89" t="n">
-        <v>141056</v>
+        <v>172218</v>
       </c>
       <c r="C89" t="s">
         <v>747</v>
@@ -19587,7 +19587,7 @@
         <v>11526</v>
       </c>
       <c r="B90" t="n">
-        <v>141057</v>
+        <v>172219</v>
       </c>
       <c r="C90" t="s">
         <v>755</v>
@@ -19652,7 +19652,7 @@
         <v>11526</v>
       </c>
       <c r="B91" t="n">
-        <v>141058</v>
+        <v>172220</v>
       </c>
       <c r="C91" t="s">
         <v>762</v>
@@ -19727,7 +19727,7 @@
         <v>11526</v>
       </c>
       <c r="B92" t="n">
-        <v>141059</v>
+        <v>172221</v>
       </c>
       <c r="C92" t="s">
         <v>771</v>
@@ -19798,7 +19798,7 @@
         <v>11526</v>
       </c>
       <c r="B93" t="n">
-        <v>141060</v>
+        <v>172222</v>
       </c>
       <c r="C93" t="s">
         <v>777</v>
@@ -19869,7 +19869,7 @@
         <v>11526</v>
       </c>
       <c r="B94" t="n">
-        <v>141061</v>
+        <v>172223</v>
       </c>
       <c r="C94" t="s">
         <v>783</v>
@@ -19940,7 +19940,7 @@
         <v>11526</v>
       </c>
       <c r="B95" t="n">
-        <v>141062</v>
+        <v>172224</v>
       </c>
       <c r="C95" t="s">
         <v>789</v>
@@ -20011,7 +20011,7 @@
         <v>11526</v>
       </c>
       <c r="B96" t="n">
-        <v>141063</v>
+        <v>172225</v>
       </c>
       <c r="C96" t="s">
         <v>795</v>
@@ -20082,7 +20082,7 @@
         <v>11526</v>
       </c>
       <c r="B97" t="n">
-        <v>141064</v>
+        <v>172226</v>
       </c>
       <c r="C97" t="s">
         <v>801</v>
@@ -20153,7 +20153,7 @@
         <v>11526</v>
       </c>
       <c r="B98" t="n">
-        <v>141065</v>
+        <v>172227</v>
       </c>
       <c r="C98" t="s">
         <v>807</v>
@@ -20218,7 +20218,7 @@
         <v>11526</v>
       </c>
       <c r="B99" t="n">
-        <v>141066</v>
+        <v>172228</v>
       </c>
       <c r="C99" t="s">
         <v>814</v>
@@ -20289,7 +20289,7 @@
         <v>11526</v>
       </c>
       <c r="B100" t="n">
-        <v>141067</v>
+        <v>172229</v>
       </c>
       <c r="C100" t="s">
         <v>820</v>
@@ -20427,7 +20427,7 @@
         <v>11526</v>
       </c>
       <c r="B102" t="n">
-        <v>141068</v>
+        <v>172230</v>
       </c>
       <c r="C102" t="s">
         <v>833</v>
@@ -20494,7 +20494,7 @@
         <v>11526</v>
       </c>
       <c r="B103" t="n">
-        <v>141069</v>
+        <v>172231</v>
       </c>
       <c r="C103" t="s">
         <v>840</v>
@@ -20561,7 +20561,7 @@
         <v>11526</v>
       </c>
       <c r="B104" t="n">
-        <v>141070</v>
+        <v>172232</v>
       </c>
       <c r="C104" t="s">
         <v>846</v>
@@ -20632,7 +20632,7 @@
         <v>11526</v>
       </c>
       <c r="B105" t="n">
-        <v>141071</v>
+        <v>172233</v>
       </c>
       <c r="C105" t="s">
         <v>852</v>
@@ -20703,7 +20703,7 @@
         <v>11526</v>
       </c>
       <c r="B106" t="n">
-        <v>141072</v>
+        <v>172234</v>
       </c>
       <c r="C106" t="s">
         <v>858</v>
@@ -20770,7 +20770,7 @@
         <v>11526</v>
       </c>
       <c r="B107" t="n">
-        <v>141073</v>
+        <v>172235</v>
       </c>
       <c r="C107" t="s">
         <v>865</v>
@@ -20841,7 +20841,7 @@
         <v>11526</v>
       </c>
       <c r="B108" t="n">
-        <v>141074</v>
+        <v>172236</v>
       </c>
       <c r="C108" t="s">
         <v>871</v>
@@ -20912,7 +20912,7 @@
         <v>11526</v>
       </c>
       <c r="B109" t="n">
-        <v>141075</v>
+        <v>172237</v>
       </c>
       <c r="C109" t="s">
         <v>877</v>
@@ -21038,7 +21038,7 @@
         <v>11526</v>
       </c>
       <c r="B111" t="n">
-        <v>141076</v>
+        <v>172238</v>
       </c>
       <c r="C111" t="s">
         <v>892</v>
@@ -21107,7 +21107,7 @@
         <v>11526</v>
       </c>
       <c r="B112" t="n">
-        <v>141077</v>
+        <v>172239</v>
       </c>
       <c r="C112" t="s">
         <v>897</v>
@@ -21178,7 +21178,7 @@
         <v>11526</v>
       </c>
       <c r="B113" t="n">
-        <v>141078</v>
+        <v>172240</v>
       </c>
       <c r="C113" t="s">
         <v>903</v>
@@ -21247,7 +21247,7 @@
         <v>11526</v>
       </c>
       <c r="B114" t="n">
-        <v>141079</v>
+        <v>172241</v>
       </c>
       <c r="C114" t="s">
         <v>910</v>
@@ -21308,7 +21308,7 @@
         <v>11526</v>
       </c>
       <c r="B115" t="n">
-        <v>141080</v>
+        <v>172242</v>
       </c>
       <c r="C115" t="s">
         <v>917</v>
@@ -21444,7 +21444,7 @@
         <v>11526</v>
       </c>
       <c r="B117" t="n">
-        <v>141081</v>
+        <v>172243</v>
       </c>
       <c r="C117" t="s">
         <v>930</v>
@@ -21515,7 +21515,7 @@
         <v>11526</v>
       </c>
       <c r="B118" t="n">
-        <v>141082</v>
+        <v>172244</v>
       </c>
       <c r="C118" t="s">
         <v>935</v>
@@ -21586,7 +21586,7 @@
         <v>11526</v>
       </c>
       <c r="B119" t="n">
-        <v>141083</v>
+        <v>172245</v>
       </c>
       <c r="C119" t="s">
         <v>941</v>
@@ -21657,7 +21657,7 @@
         <v>11526</v>
       </c>
       <c r="B120" t="n">
-        <v>141084</v>
+        <v>172246</v>
       </c>
       <c r="C120" t="s">
         <v>947</v>
@@ -21860,7 +21860,7 @@
         <v>11526</v>
       </c>
       <c r="B123" t="n">
-        <v>141085</v>
+        <v>172247</v>
       </c>
       <c r="C123" t="s">
         <v>966</v>
@@ -21931,7 +21931,7 @@
         <v>11526</v>
       </c>
       <c r="B124" t="n">
-        <v>141086</v>
+        <v>172248</v>
       </c>
       <c r="C124" t="s">
         <v>972</v>
@@ -21992,7 +21992,7 @@
         <v>11526</v>
       </c>
       <c r="B125" t="n">
-        <v>141087</v>
+        <v>172249</v>
       </c>
       <c r="C125" t="s">
         <v>979</v>
@@ -22138,7 +22138,7 @@
         <v>11526</v>
       </c>
       <c r="B127" t="n">
-        <v>141088</v>
+        <v>141053</v>
       </c>
       <c r="C127" t="s">
         <v>994</v>
@@ -22209,7 +22209,7 @@
         <v>11526</v>
       </c>
       <c r="B128" t="n">
-        <v>141089</v>
+        <v>172250</v>
       </c>
       <c r="C128" t="s">
         <v>999</v>
@@ -22280,7 +22280,7 @@
         <v>11526</v>
       </c>
       <c r="B129" t="n">
-        <v>141090</v>
+        <v>172251</v>
       </c>
       <c r="C129" t="s">
         <v>1005</v>
@@ -22337,7 +22337,7 @@
         <v>11526</v>
       </c>
       <c r="B130" t="n">
-        <v>141091</v>
+        <v>172252</v>
       </c>
       <c r="C130" t="s">
         <v>1010</v>
@@ -22408,7 +22408,7 @@
         <v>11526</v>
       </c>
       <c r="B131" t="n">
-        <v>141092</v>
+        <v>172253</v>
       </c>
       <c r="C131" t="s">
         <v>1016</v>
@@ -22479,7 +22479,7 @@
         <v>11526</v>
       </c>
       <c r="B132" t="n">
-        <v>141093</v>
+        <v>172254</v>
       </c>
       <c r="C132" t="s">
         <v>1022</v>
@@ -22544,7 +22544,7 @@
         <v>11526</v>
       </c>
       <c r="B133" t="n">
-        <v>141094</v>
+        <v>172255</v>
       </c>
       <c r="C133" t="s">
         <v>1029</v>
@@ -22615,7 +22615,7 @@
         <v>11526</v>
       </c>
       <c r="B134" t="n">
-        <v>141095</v>
+        <v>172256</v>
       </c>
       <c r="C134" t="s">
         <v>1035</v>
@@ -22686,7 +22686,7 @@
         <v>11526</v>
       </c>
       <c r="B135" t="n">
-        <v>141096</v>
+        <v>172257</v>
       </c>
       <c r="C135" t="s">
         <v>1041</v>
@@ -22824,7 +22824,7 @@
         <v>11526</v>
       </c>
       <c r="B137" t="n">
-        <v>141097</v>
+        <v>172258</v>
       </c>
       <c r="C137" t="s">
         <v>1053</v>
@@ -22895,7 +22895,7 @@
         <v>11526</v>
       </c>
       <c r="B138" t="n">
-        <v>141098</v>
+        <v>172259</v>
       </c>
       <c r="C138" t="s">
         <v>1059</v>
@@ -22962,7 +22962,7 @@
         <v>11526</v>
       </c>
       <c r="B139" t="n">
-        <v>141099</v>
+        <v>172260</v>
       </c>
       <c r="C139" t="s">
         <v>1065</v>
@@ -23029,7 +23029,7 @@
         <v>11526</v>
       </c>
       <c r="B140" t="n">
-        <v>141100</v>
+        <v>172261</v>
       </c>
       <c r="C140" t="s">
         <v>1072</v>
@@ -23161,7 +23161,7 @@
         <v>11526</v>
       </c>
       <c r="B142" t="n">
-        <v>141101</v>
+        <v>172262</v>
       </c>
       <c r="C142" t="s">
         <v>1084</v>
@@ -23232,7 +23232,7 @@
         <v>11526</v>
       </c>
       <c r="B143" t="n">
-        <v>141102</v>
+        <v>172263</v>
       </c>
       <c r="C143" t="s">
         <v>1091</v>
@@ -23303,7 +23303,7 @@
         <v>11526</v>
       </c>
       <c r="B144" t="n">
-        <v>141103</v>
+        <v>172264</v>
       </c>
       <c r="C144" t="s">
         <v>1097</v>
@@ -23374,7 +23374,7 @@
         <v>11526</v>
       </c>
       <c r="B145" t="n">
-        <v>141104</v>
+        <v>172265</v>
       </c>
       <c r="C145" t="s">
         <v>1103</v>
@@ -23577,7 +23577,7 @@
         <v>11526</v>
       </c>
       <c r="B148" t="n">
-        <v>141105</v>
+        <v>172266</v>
       </c>
       <c r="C148" t="s">
         <v>1120</v>
@@ -23644,7 +23644,7 @@
         <v>11526</v>
       </c>
       <c r="B149" t="n">
-        <v>141106</v>
+        <v>172267</v>
       </c>
       <c r="C149" t="s">
         <v>1125</v>
@@ -23715,7 +23715,7 @@
         <v>11526</v>
       </c>
       <c r="B150" t="n">
-        <v>141107</v>
+        <v>172268</v>
       </c>
       <c r="C150" t="s">
         <v>1131</v>
@@ -23786,7 +23786,7 @@
         <v>11526</v>
       </c>
       <c r="B151" t="n">
-        <v>141108</v>
+        <v>172269</v>
       </c>
       <c r="C151" t="s">
         <v>1137</v>
@@ -23857,7 +23857,7 @@
         <v>11526</v>
       </c>
       <c r="B152" t="n">
-        <v>141109</v>
+        <v>172270</v>
       </c>
       <c r="C152" t="s">
         <v>1143</v>
@@ -23932,7 +23932,7 @@
         <v>11526</v>
       </c>
       <c r="B153" t="n">
-        <v>141110</v>
+        <v>172271</v>
       </c>
       <c r="C153" t="s">
         <v>1152</v>
@@ -23993,7 +23993,7 @@
         <v>11526</v>
       </c>
       <c r="B154" t="n">
-        <v>141111</v>
+        <v>172272</v>
       </c>
       <c r="C154" t="s">
         <v>1159</v>
@@ -24068,7 +24068,7 @@
         <v>11526</v>
       </c>
       <c r="B155" t="n">
-        <v>141112</v>
+        <v>172273</v>
       </c>
       <c r="C155" t="s">
         <v>1168</v>
@@ -24141,7 +24141,7 @@
         <v>11526</v>
       </c>
       <c r="B156" t="n">
-        <v>141113</v>
+        <v>172274</v>
       </c>
       <c r="C156" t="s">
         <v>1175</v>
@@ -24287,7 +24287,7 @@
         <v>11526</v>
       </c>
       <c r="B158" t="n">
-        <v>141114</v>
+        <v>172275</v>
       </c>
       <c r="C158" t="s">
         <v>1190</v>
@@ -24356,7 +24356,7 @@
         <v>11526</v>
       </c>
       <c r="B159" t="n">
-        <v>141115</v>
+        <v>172276</v>
       </c>
       <c r="C159" t="s">
         <v>1199</v>
@@ -24431,7 +24431,7 @@
         <v>11526</v>
       </c>
       <c r="B160" t="n">
-        <v>141116</v>
+        <v>172277</v>
       </c>
       <c r="C160" t="s">
         <v>1206</v>
@@ -24506,7 +24506,7 @@
         <v>11526</v>
       </c>
       <c r="B161" t="n">
-        <v>141117</v>
+        <v>172278</v>
       </c>
       <c r="C161" t="s">
         <v>1212</v>
@@ -24646,7 +24646,7 @@
         <v>11526</v>
       </c>
       <c r="B163" t="n">
-        <v>141118</v>
+        <v>172279</v>
       </c>
       <c r="C163" t="s">
         <v>1227</v>
@@ -24778,7 +24778,7 @@
         <v>11526</v>
       </c>
       <c r="B165" t="n">
-        <v>141119</v>
+        <v>172280</v>
       </c>
       <c r="C165" t="s">
         <v>1241</v>
@@ -24853,7 +24853,7 @@
         <v>11526</v>
       </c>
       <c r="B166" t="n">
-        <v>141120</v>
+        <v>172281</v>
       </c>
       <c r="C166" t="s">
         <v>1250</v>
@@ -24997,7 +24997,7 @@
         <v>11526</v>
       </c>
       <c r="B168" t="n">
-        <v>141121</v>
+        <v>172282</v>
       </c>
       <c r="C168" t="s">
         <v>1265</v>
@@ -25068,7 +25068,7 @@
         <v>11526</v>
       </c>
       <c r="B169" t="n">
-        <v>141122</v>
+        <v>172283</v>
       </c>
       <c r="C169" t="s">
         <v>1272</v>
@@ -25143,7 +25143,7 @@
         <v>11526</v>
       </c>
       <c r="B170" t="n">
-        <v>141123</v>
+        <v>172284</v>
       </c>
       <c r="C170" t="s">
         <v>1278</v>
@@ -25208,7 +25208,7 @@
         <v>11526</v>
       </c>
       <c r="B171" t="n">
-        <v>141124</v>
+        <v>172285</v>
       </c>
       <c r="C171" t="s">
         <v>1285</v>
@@ -25279,7 +25279,7 @@
         <v>11526</v>
       </c>
       <c r="B172" t="n">
-        <v>141125</v>
+        <v>172286</v>
       </c>
       <c r="C172" t="s">
         <v>1294</v>
@@ -25557,7 +25557,7 @@
         <v>11526</v>
       </c>
       <c r="B176" t="n">
-        <v>141126</v>
+        <v>172287</v>
       </c>
       <c r="C176" t="s">
         <v>1320</v>
@@ -25693,7 +25693,7 @@
         <v>11526</v>
       </c>
       <c r="B178" t="n">
-        <v>141127</v>
+        <v>172288</v>
       </c>
       <c r="C178" t="s">
         <v>1336</v>
@@ -25764,7 +25764,7 @@
         <v>11526</v>
       </c>
       <c r="B179" t="n">
-        <v>141128</v>
+        <v>172289</v>
       </c>
       <c r="C179" t="s">
         <v>1343</v>
@@ -25833,7 +25833,7 @@
         <v>11526</v>
       </c>
       <c r="B180" t="n">
-        <v>141129</v>
+        <v>172290</v>
       </c>
       <c r="C180" t="s">
         <v>1351</v>
@@ -25977,7 +25977,7 @@
         <v>11526</v>
       </c>
       <c r="B182" t="n">
-        <v>141130</v>
+        <v>172291</v>
       </c>
       <c r="C182" t="s">
         <v>1367</v>
@@ -26048,7 +26048,7 @@
         <v>11526</v>
       </c>
       <c r="B183" t="n">
-        <v>141131</v>
+        <v>172292</v>
       </c>
       <c r="C183" t="s">
         <v>1376</v>
@@ -26123,7 +26123,7 @@
         <v>11526</v>
       </c>
       <c r="B184" t="n">
-        <v>141132</v>
+        <v>172293</v>
       </c>
       <c r="C184" t="s">
         <v>1383</v>
@@ -26269,7 +26269,7 @@
         <v>11526</v>
       </c>
       <c r="B186" t="n">
-        <v>141133</v>
+        <v>172294</v>
       </c>
       <c r="C186" t="s">
         <v>1400</v>
@@ -26344,7 +26344,7 @@
         <v>11526</v>
       </c>
       <c r="B187" t="n">
-        <v>141134</v>
+        <v>172295</v>
       </c>
       <c r="C187" t="s">
         <v>1407</v>
@@ -26419,7 +26419,7 @@
         <v>11526</v>
       </c>
       <c r="B188" t="n">
-        <v>141135</v>
+        <v>172296</v>
       </c>
       <c r="C188" t="s">
         <v>1416</v>
@@ -26563,7 +26563,7 @@
         <v>11526</v>
       </c>
       <c r="B190" t="n">
-        <v>141136</v>
+        <v>172297</v>
       </c>
       <c r="C190" t="s">
         <v>1431</v>
@@ -26638,7 +26638,7 @@
         <v>11526</v>
       </c>
       <c r="B191" t="n">
-        <v>141137</v>
+        <v>172298</v>
       </c>
       <c r="C191" t="s">
         <v>1437</v>
@@ -26707,7 +26707,7 @@
         <v>11526</v>
       </c>
       <c r="B192" t="n">
-        <v>141138</v>
+        <v>172299</v>
       </c>
       <c r="C192" t="s">
         <v>1446</v>
@@ -26857,7 +26857,7 @@
         <v>11526</v>
       </c>
       <c r="B194" t="n">
-        <v>141139</v>
+        <v>172300</v>
       </c>
       <c r="C194" t="s">
         <v>1464</v>
@@ -26932,7 +26932,7 @@
         <v>11526</v>
       </c>
       <c r="B195" t="n">
-        <v>141140</v>
+        <v>172301</v>
       </c>
       <c r="C195" t="s">
         <v>1471</v>
@@ -27082,7 +27082,7 @@
         <v>11526</v>
       </c>
       <c r="B197" t="n">
-        <v>141141</v>
+        <v>172302</v>
       </c>
       <c r="C197" t="s">
         <v>1487</v>
@@ -27232,7 +27232,7 @@
         <v>11526</v>
       </c>
       <c r="B199" t="n">
-        <v>141142</v>
+        <v>172303</v>
       </c>
       <c r="C199" t="s">
         <v>1504</v>
@@ -27378,7 +27378,7 @@
         <v>11526</v>
       </c>
       <c r="B201" t="n">
-        <v>141143</v>
+        <v>141058</v>
       </c>
       <c r="C201" t="s">
         <v>1520</v>
@@ -27443,7 +27443,7 @@
         <v>11526</v>
       </c>
       <c r="B202" t="n">
-        <v>141144</v>
+        <v>172304</v>
       </c>
       <c r="C202" t="s">
         <v>1528</v>
@@ -27504,7 +27504,7 @@
         <v>11526</v>
       </c>
       <c r="B203" t="n">
-        <v>141145</v>
+        <v>172305</v>
       </c>
       <c r="C203" t="s">
         <v>1537</v>
@@ -27640,7 +27640,7 @@
         <v>11526</v>
       </c>
       <c r="B205" t="n">
-        <v>141146</v>
+        <v>172306</v>
       </c>
       <c r="C205" t="s">
         <v>1553</v>
@@ -27790,7 +27790,7 @@
         <v>11526</v>
       </c>
       <c r="B207" t="n">
-        <v>141147</v>
+        <v>172307</v>
       </c>
       <c r="C207" t="s">
         <v>1569</v>
@@ -27865,7 +27865,7 @@
         <v>11526</v>
       </c>
       <c r="B208" t="n">
-        <v>141148</v>
+        <v>172308</v>
       </c>
       <c r="C208" t="s">
         <v>1575</v>
@@ -27934,7 +27934,7 @@
         <v>11526</v>
       </c>
       <c r="B209" t="n">
-        <v>141149</v>
+        <v>172309</v>
       </c>
       <c r="C209" t="s">
         <v>1582</v>
@@ -27995,7 +27995,7 @@
         <v>11526</v>
       </c>
       <c r="B210" t="n">
-        <v>141150</v>
+        <v>141047</v>
       </c>
       <c r="C210" t="s">
         <v>1591</v>
@@ -28064,7 +28064,7 @@
         <v>11526</v>
       </c>
       <c r="B211" t="n">
-        <v>141151</v>
+        <v>172310</v>
       </c>
       <c r="C211" t="s">
         <v>1600</v>
@@ -28139,7 +28139,7 @@
         <v>11526</v>
       </c>
       <c r="B212" t="n">
-        <v>141152</v>
+        <v>172311</v>
       </c>
       <c r="C212" t="s">
         <v>1607</v>
@@ -28214,7 +28214,7 @@
         <v>11526</v>
       </c>
       <c r="B213" t="n">
-        <v>141153</v>
+        <v>172312</v>
       </c>
       <c r="C213" t="s">
         <v>1614</v>
@@ -28289,7 +28289,7 @@
         <v>11526</v>
       </c>
       <c r="B214" t="n">
-        <v>141154</v>
+        <v>172313</v>
       </c>
       <c r="C214" t="s">
         <v>1621</v>
@@ -28364,7 +28364,7 @@
         <v>11526</v>
       </c>
       <c r="B215" t="n">
-        <v>141155</v>
+        <v>172314</v>
       </c>
       <c r="C215" t="s">
         <v>1630</v>
@@ -28435,7 +28435,7 @@
         <v>11526</v>
       </c>
       <c r="B216" t="n">
-        <v>141156</v>
+        <v>172315</v>
       </c>
       <c r="C216" t="s">
         <v>1639</v>
@@ -28500,7 +28500,7 @@
         <v>11526</v>
       </c>
       <c r="B217" t="n">
-        <v>141157</v>
+        <v>172316</v>
       </c>
       <c r="C217" t="s">
         <v>1646</v>
@@ -28575,7 +28575,7 @@
         <v>11526</v>
       </c>
       <c r="B218" t="n">
-        <v>141158</v>
+        <v>172317</v>
       </c>
       <c r="C218" t="s">
         <v>1655</v>
@@ -28640,7 +28640,7 @@
         <v>11526</v>
       </c>
       <c r="B219" t="n">
-        <v>141159</v>
+        <v>172318</v>
       </c>
       <c r="C219" t="s">
         <v>1661</v>
@@ -28715,7 +28715,7 @@
         <v>11526</v>
       </c>
       <c r="B220" t="n">
-        <v>141160</v>
+        <v>172319</v>
       </c>
       <c r="C220" t="s">
         <v>1667</v>
@@ -28790,7 +28790,7 @@
         <v>11526</v>
       </c>
       <c r="B221" t="n">
-        <v>141161</v>
+        <v>172320</v>
       </c>
       <c r="C221" t="s">
         <v>1674</v>
@@ -28926,7 +28926,7 @@
         <v>11526</v>
       </c>
       <c r="B223" t="n">
-        <v>141162</v>
+        <v>172321</v>
       </c>
       <c r="C223" t="s">
         <v>1692</v>
@@ -29066,7 +29066,7 @@
         <v>11526</v>
       </c>
       <c r="B225" t="n">
-        <v>141163</v>
+        <v>172322</v>
       </c>
       <c r="C225" t="s">
         <v>1706</v>
@@ -29137,7 +29137,7 @@
         <v>11526</v>
       </c>
       <c r="B226" t="n">
-        <v>141164</v>
+        <v>172323</v>
       </c>
       <c r="C226" t="s">
         <v>1713</v>
@@ -29212,7 +29212,7 @@
         <v>11526</v>
       </c>
       <c r="B227" t="n">
-        <v>141165</v>
+        <v>172324</v>
       </c>
       <c r="C227" t="s">
         <v>1722</v>
@@ -29281,7 +29281,7 @@
         <v>11526</v>
       </c>
       <c r="B228" t="n">
-        <v>141166</v>
+        <v>172325</v>
       </c>
       <c r="C228" t="s">
         <v>1729</v>
@@ -29419,7 +29419,7 @@
         <v>11526</v>
       </c>
       <c r="B230" t="n">
-        <v>141167</v>
+        <v>172326</v>
       </c>
       <c r="C230" t="s">
         <v>1742</v>
@@ -29494,7 +29494,7 @@
         <v>11526</v>
       </c>
       <c r="B231" t="n">
-        <v>141168</v>
+        <v>11553</v>
       </c>
       <c r="C231" t="s">
         <v>1751</v>
@@ -29565,7 +29565,7 @@
         <v>11526</v>
       </c>
       <c r="B232" t="n">
-        <v>141169</v>
+        <v>172327</v>
       </c>
       <c r="C232" t="s">
         <v>1757</v>
@@ -29786,7 +29786,7 @@
         <v>11526</v>
       </c>
       <c r="B235" t="n">
-        <v>141170</v>
+        <v>172328</v>
       </c>
       <c r="C235" t="s">
         <v>1778</v>
@@ -29861,7 +29861,7 @@
         <v>11526</v>
       </c>
       <c r="B236" t="n">
-        <v>141171</v>
+        <v>172329</v>
       </c>
       <c r="C236" t="s">
         <v>1785</v>
@@ -29926,7 +29926,7 @@
         <v>11526</v>
       </c>
       <c r="B237" t="n">
-        <v>141172</v>
+        <v>172330</v>
       </c>
       <c r="C237" t="s">
         <v>1793</v>
@@ -30001,7 +30001,7 @@
         <v>11526</v>
       </c>
       <c r="B238" t="n">
-        <v>141173</v>
+        <v>172331</v>
       </c>
       <c r="C238" t="s">
         <v>1799</v>
@@ -30076,7 +30076,7 @@
         <v>11526</v>
       </c>
       <c r="B239" t="n">
-        <v>141174</v>
+        <v>172332</v>
       </c>
       <c r="C239" t="s">
         <v>1808</v>
@@ -30285,7 +30285,7 @@
         <v>11526</v>
       </c>
       <c r="B242" t="n">
-        <v>141175</v>
+        <v>172333</v>
       </c>
       <c r="C242" t="s">
         <v>1831</v>
@@ -30360,7 +30360,7 @@
         <v>11526</v>
       </c>
       <c r="B243" t="n">
-        <v>141176</v>
+        <v>172334</v>
       </c>
       <c r="C243" t="s">
         <v>1838</v>
@@ -30435,7 +30435,7 @@
         <v>11526</v>
       </c>
       <c r="B244" t="n">
-        <v>141177</v>
+        <v>172335</v>
       </c>
       <c r="C244" t="s">
         <v>1847</v>
@@ -30510,7 +30510,7 @@
         <v>11526</v>
       </c>
       <c r="B245" t="n">
-        <v>141178</v>
+        <v>172336</v>
       </c>
       <c r="C245" t="s">
         <v>1854</v>
@@ -30581,7 +30581,7 @@
         <v>11526</v>
       </c>
       <c r="B246" t="n">
-        <v>141179</v>
+        <v>172337</v>
       </c>
       <c r="C246" t="s">
         <v>1863</v>
@@ -30656,7 +30656,7 @@
         <v>11526</v>
       </c>
       <c r="B247" t="n">
-        <v>141180</v>
+        <v>172338</v>
       </c>
       <c r="C247" t="s">
         <v>1869</v>
@@ -30721,7 +30721,7 @@
         <v>11526</v>
       </c>
       <c r="B248" t="n">
-        <v>141181</v>
+        <v>172339</v>
       </c>
       <c r="C248" t="s">
         <v>1878</v>
@@ -30796,7 +30796,7 @@
         <v>11526</v>
       </c>
       <c r="B249" t="n">
-        <v>141182</v>
+        <v>172340</v>
       </c>
       <c r="C249" t="s">
         <v>1885</v>
@@ -30871,7 +30871,7 @@
         <v>11526</v>
       </c>
       <c r="B250" t="n">
-        <v>141183</v>
+        <v>172341</v>
       </c>
       <c r="C250" t="s">
         <v>1895</v>
@@ -30940,7 +30940,7 @@
         <v>11526</v>
       </c>
       <c r="B251" t="n">
-        <v>141184</v>
+        <v>172342</v>
       </c>
       <c r="C251" t="s">
         <v>1902</v>
@@ -31086,7 +31086,7 @@
         <v>11526</v>
       </c>
       <c r="B253" t="n">
-        <v>141185</v>
+        <v>172343</v>
       </c>
       <c r="C253" t="s">
         <v>1917</v>
@@ -31218,7 +31218,7 @@
         <v>11526</v>
       </c>
       <c r="B255" t="n">
-        <v>141186</v>
+        <v>172344</v>
       </c>
       <c r="C255" t="s">
         <v>1929</v>
@@ -31283,7 +31283,7 @@
         <v>11526</v>
       </c>
       <c r="B256" t="n">
-        <v>141187</v>
+        <v>172345</v>
       </c>
       <c r="C256" t="s">
         <v>1935</v>
@@ -31425,7 +31425,7 @@
         <v>11526</v>
       </c>
       <c r="B258" t="n">
-        <v>141188</v>
+        <v>172346</v>
       </c>
       <c r="C258" t="s">
         <v>1946</v>
@@ -31638,7 +31638,7 @@
         <v>11526</v>
       </c>
       <c r="B261" t="n">
-        <v>141189</v>
+        <v>172347</v>
       </c>
       <c r="C261" t="s">
         <v>1964</v>
@@ -31709,7 +31709,7 @@
         <v>11526</v>
       </c>
       <c r="B262" t="n">
-        <v>141190</v>
+        <v>172348</v>
       </c>
       <c r="C262" t="s">
         <v>1970</v>
@@ -31780,7 +31780,7 @@
         <v>11526</v>
       </c>
       <c r="B263" t="n">
-        <v>141191</v>
+        <v>172349</v>
       </c>
       <c r="C263" t="s">
         <v>1976</v>
@@ -31922,7 +31922,7 @@
         <v>11526</v>
       </c>
       <c r="B265" t="n">
-        <v>141192</v>
+        <v>172350</v>
       </c>
       <c r="C265" t="s">
         <v>1990</v>
@@ -32064,7 +32064,7 @@
         <v>11526</v>
       </c>
       <c r="B267" t="n">
-        <v>141193</v>
+        <v>172351</v>
       </c>
       <c r="C267" t="s">
         <v>2002</v>
@@ -32125,7 +32125,7 @@
         <v>11526</v>
       </c>
       <c r="B268" t="n">
-        <v>141194</v>
+        <v>172352</v>
       </c>
       <c r="C268" t="s">
         <v>2007</v>
@@ -32186,7 +32186,7 @@
         <v>11526</v>
       </c>
       <c r="B269" t="n">
-        <v>141195</v>
+        <v>172353</v>
       </c>
       <c r="C269" t="s">
         <v>2013</v>
@@ -32257,7 +32257,7 @@
         <v>11526</v>
       </c>
       <c r="B270" t="n">
-        <v>141196</v>
+        <v>172354</v>
       </c>
       <c r="C270" t="s">
         <v>2019</v>
@@ -32590,7 +32590,7 @@
         <v>11526</v>
       </c>
       <c r="B275" t="n">
-        <v>141149</v>
+        <v>141047</v>
       </c>
       <c r="C275" t="s">
         <v>1591</v>
@@ -32661,7 +32661,7 @@
         <v>11526</v>
       </c>
       <c r="B276" t="n">
-        <v>141197</v>
+        <v>172355</v>
       </c>
       <c r="C276" t="s">
         <v>2058</v>
@@ -32728,7 +32728,7 @@
         <v>11526</v>
       </c>
       <c r="B277" t="n">
-        <v>141198</v>
+        <v>172356</v>
       </c>
       <c r="C277" t="s">
         <v>2063</v>
@@ -32799,7 +32799,7 @@
         <v>11526</v>
       </c>
       <c r="B278" t="n">
-        <v>141199</v>
+        <v>172357</v>
       </c>
       <c r="C278" t="s">
         <v>2069</v>
@@ -32860,7 +32860,7 @@
         <v>11526</v>
       </c>
       <c r="B279" t="n">
-        <v>141200</v>
+        <v>172358</v>
       </c>
       <c r="C279" t="s">
         <v>2075</v>
@@ -32998,7 +32998,7 @@
         <v>11526</v>
       </c>
       <c r="B281" t="n">
-        <v>141201</v>
+        <v>172359</v>
       </c>
       <c r="C281" t="s">
         <v>2086</v>
@@ -33069,7 +33069,7 @@
         <v>11526</v>
       </c>
       <c r="B282" t="n">
-        <v>141202</v>
+        <v>141049</v>
       </c>
       <c r="C282" t="s">
         <v>2095</v>
@@ -33136,7 +33136,7 @@
         <v>11526</v>
       </c>
       <c r="B283" t="n">
-        <v>141201</v>
+        <v>141049</v>
       </c>
       <c r="C283" t="s">
         <v>2095</v>
@@ -33207,7 +33207,7 @@
         <v>11526</v>
       </c>
       <c r="B284" t="n">
-        <v>141203</v>
+        <v>172360</v>
       </c>
       <c r="C284" t="s">
         <v>2104</v>
@@ -33282,7 +33282,7 @@
         <v>11526</v>
       </c>
       <c r="B285" t="n">
-        <v>141204</v>
+        <v>172361</v>
       </c>
       <c r="C285" t="s">
         <v>2113</v>
@@ -33351,7 +33351,7 @@
         <v>11526</v>
       </c>
       <c r="B286" t="n">
-        <v>141205</v>
+        <v>172362</v>
       </c>
       <c r="C286" t="s">
         <v>2122</v>
@@ -33422,7 +33422,7 @@
         <v>11526</v>
       </c>
       <c r="B287" t="n">
-        <v>141206</v>
+        <v>172363</v>
       </c>
       <c r="C287" t="s">
         <v>2126</v>
@@ -33493,7 +33493,7 @@
         <v>11526</v>
       </c>
       <c r="B288" t="n">
-        <v>141207</v>
+        <v>172364</v>
       </c>
       <c r="C288" t="s">
         <v>2132</v>
@@ -33568,7 +33568,7 @@
         <v>11526</v>
       </c>
       <c r="B289" t="n">
-        <v>141208</v>
+        <v>172365</v>
       </c>
       <c r="C289" t="s">
         <v>2140</v>
@@ -33643,7 +33643,7 @@
         <v>11526</v>
       </c>
       <c r="B290" t="n">
-        <v>141209</v>
+        <v>172366</v>
       </c>
       <c r="C290" t="s">
         <v>2149</v>
@@ -33781,7 +33781,7 @@
         <v>11526</v>
       </c>
       <c r="B292" t="n">
-        <v>141210</v>
+        <v>172367</v>
       </c>
       <c r="C292" t="s">
         <v>2161</v>
@@ -33848,7 +33848,7 @@
         <v>11526</v>
       </c>
       <c r="B293" t="n">
-        <v>141211</v>
+        <v>172368</v>
       </c>
       <c r="C293" t="s">
         <v>2167</v>
@@ -34055,7 +34055,7 @@
         <v>11526</v>
       </c>
       <c r="B296" t="n">
-        <v>141212</v>
+        <v>172369</v>
       </c>
       <c r="C296" t="s">
         <v>2188</v>
@@ -34120,7 +34120,7 @@
         <v>11526</v>
       </c>
       <c r="B297" t="n">
-        <v>141213</v>
+        <v>172370</v>
       </c>
       <c r="C297" t="s">
         <v>2195</v>
@@ -34191,7 +34191,7 @@
         <v>11526</v>
       </c>
       <c r="B298" t="n">
-        <v>141087</v>
+        <v>141053</v>
       </c>
       <c r="C298" t="s">
         <v>994</v>
@@ -34262,7 +34262,7 @@
         <v>11526</v>
       </c>
       <c r="B299" t="n">
-        <v>141214</v>
+        <v>172371</v>
       </c>
       <c r="C299" t="s">
         <v>2205</v>
@@ -34333,7 +34333,7 @@
         <v>11526</v>
       </c>
       <c r="B300" t="n">
-        <v>141215</v>
+        <v>172372</v>
       </c>
       <c r="C300" t="s">
         <v>2211</v>
@@ -34400,7 +34400,7 @@
         <v>11526</v>
       </c>
       <c r="B301" t="n">
-        <v>141216</v>
+        <v>172373</v>
       </c>
       <c r="C301" t="s">
         <v>2216</v>
@@ -34467,7 +34467,7 @@
         <v>11526</v>
       </c>
       <c r="B302" t="n">
-        <v>141217</v>
+        <v>172374</v>
       </c>
       <c r="C302" t="s">
         <v>2222</v>
@@ -34674,7 +34674,7 @@
         <v>11526</v>
       </c>
       <c r="B305" t="n">
-        <v>141218</v>
+        <v>172375</v>
       </c>
       <c r="C305" t="s">
         <v>2241</v>
@@ -34877,7 +34877,7 @@
         <v>11526</v>
       </c>
       <c r="B308" t="n">
-        <v>141142</v>
+        <v>141058</v>
       </c>
       <c r="C308" t="s">
         <v>1520</v>
@@ -35084,7 +35084,7 @@
         <v>11526</v>
       </c>
       <c r="B311" t="n">
-        <v>141219</v>
+        <v>172376</v>
       </c>
       <c r="C311" t="s">
         <v>2280</v>
@@ -35155,7 +35155,7 @@
         <v>11526</v>
       </c>
       <c r="B312" t="n">
-        <v>141220</v>
+        <v>172377</v>
       </c>
       <c r="C312" t="s">
         <v>2286</v>
@@ -35220,7 +35220,7 @@
         <v>11526</v>
       </c>
       <c r="B313" t="n">
-        <v>141221</v>
+        <v>172378</v>
       </c>
       <c r="C313" t="s">
         <v>2292</v>
@@ -35289,7 +35289,7 @@
         <v>11526</v>
       </c>
       <c r="B314" t="n">
-        <v>141222</v>
+        <v>172379</v>
       </c>
       <c r="C314" t="s">
         <v>2297</v>
@@ -35358,7 +35358,7 @@
         <v>11526</v>
       </c>
       <c r="B315" t="n">
-        <v>141223</v>
+        <v>172380</v>
       </c>
       <c r="C315" t="s">
         <v>2307</v>
@@ -35494,7 +35494,7 @@
         <v>11526</v>
       </c>
       <c r="B317" t="n">
-        <v>141224</v>
+        <v>172381</v>
       </c>
       <c r="C317" t="s">
         <v>2317</v>
@@ -35699,7 +35699,7 @@
         <v>11526</v>
       </c>
       <c r="B320" t="n">
-        <v>141225</v>
+        <v>172382</v>
       </c>
       <c r="C320" t="s">
         <v>2337</v>
@@ -35768,7 +35768,7 @@
         <v>11526</v>
       </c>
       <c r="B321" t="n">
-        <v>141226</v>
+        <v>172383</v>
       </c>
       <c r="C321" t="s">
         <v>2344</v>
@@ -35833,7 +35833,7 @@
         <v>11526</v>
       </c>
       <c r="B322" t="n">
-        <v>141227</v>
+        <v>172384</v>
       </c>
       <c r="C322" t="s">
         <v>2351</v>
@@ -35900,7 +35900,7 @@
         <v>11526</v>
       </c>
       <c r="B323" t="n">
-        <v>141228</v>
+        <v>172385</v>
       </c>
       <c r="C323" t="s">
         <v>2357</v>
@@ -35965,7 +35965,7 @@
         <v>11526</v>
       </c>
       <c r="B324" t="n">
-        <v>141229</v>
+        <v>172386</v>
       </c>
       <c r="C324" t="s">
         <v>2363</v>
@@ -36103,7 +36103,7 @@
         <v>11526</v>
       </c>
       <c r="B326" t="n">
-        <v>141230</v>
+        <v>172387</v>
       </c>
       <c r="C326" t="s">
         <v>2378</v>
@@ -36310,7 +36310,7 @@
         <v>11526</v>
       </c>
       <c r="B329" t="n">
-        <v>141231</v>
+        <v>172388</v>
       </c>
       <c r="C329" t="s">
         <v>2396</v>
@@ -36381,7 +36381,7 @@
         <v>11526</v>
       </c>
       <c r="B330" t="n">
-        <v>141232</v>
+        <v>172389</v>
       </c>
       <c r="C330" t="s">
         <v>2402</v>
@@ -36442,7 +36442,7 @@
         <v>11526</v>
       </c>
       <c r="B331" t="n">
-        <v>141233</v>
+        <v>141096</v>
       </c>
       <c r="C331" t="s">
         <v>2408</v>
@@ -36517,7 +36517,7 @@
         <v>11526</v>
       </c>
       <c r="B332" t="n">
-        <v>141234</v>
+        <v>172390</v>
       </c>
       <c r="C332" t="s">
         <v>2417</v>
@@ -36588,7 +36588,7 @@
         <v>11526</v>
       </c>
       <c r="B333" t="n">
-        <v>141235</v>
+        <v>172391</v>
       </c>
       <c r="C333" t="s">
         <v>2426</v>
@@ -36649,7 +36649,7 @@
         <v>11526</v>
       </c>
       <c r="B334" t="n">
-        <v>141236</v>
+        <v>172392</v>
       </c>
       <c r="C334" t="s">
         <v>2432</v>
@@ -36720,7 +36720,7 @@
         <v>11526</v>
       </c>
       <c r="B335" t="n">
-        <v>141237</v>
+        <v>172393</v>
       </c>
       <c r="C335" t="s">
         <v>2438</v>
@@ -36789,7 +36789,7 @@
         <v>11526</v>
       </c>
       <c r="B336" t="n">
-        <v>141238</v>
+        <v>172394</v>
       </c>
       <c r="C336" t="s">
         <v>2445</v>
@@ -36856,7 +36856,7 @@
         <v>11526</v>
       </c>
       <c r="B337" t="n">
-        <v>141239</v>
+        <v>172395</v>
       </c>
       <c r="C337" t="s">
         <v>2451</v>
@@ -36931,7 +36931,7 @@
         <v>11526</v>
       </c>
       <c r="B338" t="n">
-        <v>141240</v>
+        <v>172396</v>
       </c>
       <c r="C338" t="s">
         <v>2457</v>
@@ -37156,7 +37156,7 @@
         <v>11526</v>
       </c>
       <c r="B341" t="n">
-        <v>141241</v>
+        <v>172397</v>
       </c>
       <c r="C341" t="s">
         <v>2476</v>
@@ -37217,7 +37217,7 @@
         <v>11526</v>
       </c>
       <c r="B342" t="n">
-        <v>141242</v>
+        <v>172398</v>
       </c>
       <c r="C342" t="s">
         <v>2483</v>
@@ -37359,7 +37359,7 @@
         <v>11526</v>
       </c>
       <c r="B344" t="n">
-        <v>141243</v>
+        <v>172399</v>
       </c>
       <c r="C344" t="s">
         <v>2495</v>
@@ -37426,7 +37426,7 @@
         <v>11526</v>
       </c>
       <c r="B345" t="n">
-        <v>141244</v>
+        <v>172400</v>
       </c>
       <c r="C345" t="s">
         <v>2501</v>
@@ -37497,7 +37497,7 @@
         <v>11526</v>
       </c>
       <c r="B346" t="n">
-        <v>141245</v>
+        <v>172401</v>
       </c>
       <c r="C346" t="s">
         <v>2510</v>
@@ -37568,7 +37568,7 @@
         <v>11526</v>
       </c>
       <c r="B347" t="n">
-        <v>141246</v>
+        <v>172402</v>
       </c>
       <c r="C347" t="s">
         <v>2519</v>
@@ -37718,7 +37718,7 @@
         <v>11526</v>
       </c>
       <c r="B349" t="n">
-        <v>141247</v>
+        <v>172403</v>
       </c>
       <c r="C349" t="s">
         <v>2532</v>
@@ -37783,7 +37783,7 @@
         <v>11526</v>
       </c>
       <c r="B350" t="n">
-        <v>141248</v>
+        <v>172404</v>
       </c>
       <c r="C350" t="s">
         <v>2539</v>
@@ -37852,7 +37852,7 @@
         <v>11526</v>
       </c>
       <c r="B351" t="n">
-        <v>141249</v>
+        <v>172405</v>
       </c>
       <c r="C351" t="s">
         <v>2546</v>
@@ -37921,7 +37921,7 @@
         <v>11526</v>
       </c>
       <c r="B352" t="n">
-        <v>141250</v>
+        <v>172406</v>
       </c>
       <c r="C352" t="s">
         <v>2556</v>
@@ -37996,7 +37996,7 @@
         <v>11526</v>
       </c>
       <c r="B353" t="n">
-        <v>141251</v>
+        <v>172407</v>
       </c>
       <c r="C353" t="s">
         <v>2565</v>
@@ -38136,7 +38136,7 @@
         <v>11526</v>
       </c>
       <c r="B355" t="n">
-        <v>141252</v>
+        <v>172408</v>
       </c>
       <c r="C355" t="s">
         <v>2583</v>
@@ -38463,7 +38463,7 @@
         <v>11526</v>
       </c>
       <c r="B360" t="n">
-        <v>141253</v>
+        <v>172409</v>
       </c>
       <c r="C360" t="s">
         <v>2614</v>
@@ -38534,7 +38534,7 @@
         <v>11526</v>
       </c>
       <c r="B361" t="n">
-        <v>141254</v>
+        <v>172410</v>
       </c>
       <c r="C361" t="s">
         <v>2620</v>
@@ -38818,7 +38818,7 @@
         <v>11526</v>
       </c>
       <c r="B365" t="n">
-        <v>141255</v>
+        <v>172411</v>
       </c>
       <c r="C365" t="s">
         <v>2649</v>
@@ -38885,7 +38885,7 @@
         <v>11526</v>
       </c>
       <c r="B366" t="n">
-        <v>141256</v>
+        <v>172412</v>
       </c>
       <c r="C366" t="s">
         <v>2655</v>
@@ -39147,7 +39147,7 @@
         <v>11526</v>
       </c>
       <c r="B370" t="n">
-        <v>141257</v>
+        <v>172413</v>
       </c>
       <c r="C370" t="s">
         <v>2684</v>
@@ -39352,7 +39352,7 @@
         <v>11526</v>
       </c>
       <c r="B373" t="n">
-        <v>141258</v>
+        <v>172414</v>
       </c>
       <c r="C373" t="s">
         <v>2704</v>
@@ -39427,7 +39427,7 @@
         <v>11526</v>
       </c>
       <c r="B374" t="n">
-        <v>141259</v>
+        <v>172415</v>
       </c>
       <c r="C374" t="s">
         <v>2710</v>
@@ -39640,7 +39640,7 @@
         <v>11526</v>
       </c>
       <c r="B377" t="n">
-        <v>141260</v>
+        <v>172416</v>
       </c>
       <c r="C377" t="s">
         <v>2731</v>
@@ -39774,7 +39774,7 @@
         <v>11526</v>
       </c>
       <c r="B379" t="n">
-        <v>141261</v>
+        <v>172417</v>
       </c>
       <c r="C379" t="s">
         <v>2741</v>
@@ -39845,7 +39845,7 @@
         <v>11526</v>
       </c>
       <c r="B380" t="n">
-        <v>141262</v>
+        <v>172418</v>
       </c>
       <c r="C380" t="s">
         <v>2748</v>
@@ -39985,7 +39985,7 @@
         <v>11526</v>
       </c>
       <c r="B382" t="n">
-        <v>141263</v>
+        <v>172419</v>
       </c>
       <c r="C382" t="s">
         <v>2762</v>
@@ -40054,7 +40054,7 @@
         <v>11526</v>
       </c>
       <c r="B383" t="n">
-        <v>141264</v>
+        <v>172420</v>
       </c>
       <c r="C383" t="s">
         <v>2769</v>
@@ -40115,7 +40115,7 @@
         <v>11526</v>
       </c>
       <c r="B384" t="n">
-        <v>141265</v>
+        <v>172421</v>
       </c>
       <c r="C384" t="s">
         <v>2775</v>
@@ -40190,7 +40190,7 @@
         <v>11526</v>
       </c>
       <c r="B385" t="n">
-        <v>141266</v>
+        <v>172422</v>
       </c>
       <c r="C385" t="s">
         <v>2784</v>
@@ -40543,7 +40543,7 @@
         <v>11526</v>
       </c>
       <c r="B390" t="n">
-        <v>141267</v>
+        <v>172423</v>
       </c>
       <c r="C390" t="s">
         <v>2814</v>
@@ -40614,7 +40614,7 @@
         <v>11526</v>
       </c>
       <c r="B391" t="n">
-        <v>141268</v>
+        <v>172424</v>
       </c>
       <c r="C391" t="s">
         <v>2823</v>
@@ -40685,7 +40685,7 @@
         <v>11526</v>
       </c>
       <c r="B392" t="n">
-        <v>141269</v>
+        <v>172425</v>
       </c>
       <c r="C392" t="s">
         <v>2831</v>
@@ -40760,7 +40760,7 @@
         <v>11526</v>
       </c>
       <c r="B393" t="n">
-        <v>141270</v>
+        <v>172426</v>
       </c>
       <c r="C393" t="s">
         <v>2840</v>
@@ -40835,7 +40835,7 @@
         <v>11526</v>
       </c>
       <c r="B394" t="n">
-        <v>141271</v>
+        <v>172427</v>
       </c>
       <c r="C394" t="s">
         <v>2849</v>
@@ -40896,7 +40896,7 @@
         <v>11526</v>
       </c>
       <c r="B395" t="n">
-        <v>141272</v>
+        <v>172428</v>
       </c>
       <c r="C395" t="s">
         <v>2854</v>
@@ -40967,7 +40967,7 @@
         <v>11526</v>
       </c>
       <c r="B396" t="n">
-        <v>141273</v>
+        <v>172429</v>
       </c>
       <c r="C396" t="s">
         <v>2860</v>
@@ -41028,7 +41028,7 @@
         <v>11526</v>
       </c>
       <c r="B397" t="n">
-        <v>141274</v>
+        <v>172430</v>
       </c>
       <c r="C397" t="s">
         <v>2867</v>
@@ -41095,7 +41095,7 @@
         <v>11526</v>
       </c>
       <c r="B398" t="n">
-        <v>141275</v>
+        <v>172431</v>
       </c>
       <c r="C398" t="s">
         <v>2873</v>
@@ -41166,7 +41166,7 @@
         <v>11526</v>
       </c>
       <c r="B399" t="n">
-        <v>141276</v>
+        <v>172432</v>
       </c>
       <c r="C399" t="s">
         <v>2882</v>
@@ -41237,7 +41237,7 @@
         <v>11526</v>
       </c>
       <c r="B400" t="n">
-        <v>141277</v>
+        <v>172433</v>
       </c>
       <c r="C400" t="s">
         <v>2887</v>
@@ -41308,7 +41308,7 @@
         <v>11526</v>
       </c>
       <c r="B401" t="n">
-        <v>141278</v>
+        <v>172434</v>
       </c>
       <c r="C401" t="s">
         <v>2894</v>
@@ -41444,7 +41444,7 @@
         <v>11526</v>
       </c>
       <c r="B403" t="n">
-        <v>141279</v>
+        <v>172435</v>
       </c>
       <c r="C403" t="s">
         <v>2908</v>
@@ -41647,7 +41647,7 @@
         <v>11526</v>
       </c>
       <c r="B406" t="n">
-        <v>141280</v>
+        <v>172436</v>
       </c>
       <c r="C406" t="s">
         <v>2926</v>
@@ -41708,7 +41708,7 @@
         <v>11526</v>
       </c>
       <c r="B407" t="n">
-        <v>141281</v>
+        <v>172437</v>
       </c>
       <c r="C407" t="s">
         <v>2933</v>
@@ -41775,7 +41775,7 @@
         <v>11526</v>
       </c>
       <c r="B408" t="n">
-        <v>141282</v>
+        <v>172438</v>
       </c>
       <c r="C408" t="s">
         <v>2940</v>
@@ -41844,7 +41844,7 @@
         <v>11526</v>
       </c>
       <c r="B409" t="n">
-        <v>141283</v>
+        <v>172439</v>
       </c>
       <c r="C409" t="s">
         <v>2949</v>
@@ -41909,7 +41909,7 @@
         <v>11526</v>
       </c>
       <c r="B410" t="n">
-        <v>141284</v>
+        <v>172440</v>
       </c>
       <c r="C410" t="s">
         <v>2955</v>
@@ -41978,7 +41978,7 @@
         <v>11526</v>
       </c>
       <c r="B411" t="n">
-        <v>141285</v>
+        <v>172441</v>
       </c>
       <c r="C411" t="s">
         <v>2964</v>
@@ -42049,7 +42049,7 @@
         <v>11526</v>
       </c>
       <c r="B412" t="n">
-        <v>141286</v>
+        <v>172442</v>
       </c>
       <c r="C412" t="s">
         <v>2968</v>
@@ -42124,7 +42124,7 @@
         <v>11526</v>
       </c>
       <c r="B413" t="n">
-        <v>141287</v>
+        <v>172443</v>
       </c>
       <c r="C413" t="s">
         <v>2976</v>
@@ -42185,7 +42185,7 @@
         <v>11526</v>
       </c>
       <c r="B414" t="n">
-        <v>141288</v>
+        <v>172444</v>
       </c>
       <c r="C414" t="s">
         <v>2983</v>
@@ -42331,7 +42331,7 @@
         <v>11526</v>
       </c>
       <c r="B416" t="n">
-        <v>141232</v>
+        <v>141096</v>
       </c>
       <c r="C416" t="s">
         <v>2408</v>
@@ -42540,7 +42540,7 @@
         <v>11526</v>
       </c>
       <c r="B419" t="n">
-        <v>141289</v>
+        <v>172445</v>
       </c>
       <c r="C419" t="s">
         <v>3010</v>
@@ -42615,7 +42615,7 @@
         <v>11526</v>
       </c>
       <c r="B420" t="n">
-        <v>141290</v>
+        <v>172446</v>
       </c>
       <c r="C420" t="s">
         <v>3020</v>
@@ -42682,7 +42682,7 @@
         <v>11526</v>
       </c>
       <c r="B421" t="n">
-        <v>141291</v>
+        <v>141155</v>
       </c>
       <c r="C421" t="s">
         <v>3026</v>
@@ -42806,7 +42806,7 @@
         <v>11526</v>
       </c>
       <c r="B423" t="n">
-        <v>141292</v>
+        <v>172447</v>
       </c>
       <c r="C423" t="s">
         <v>3038</v>
@@ -42871,7 +42871,7 @@
         <v>11526</v>
       </c>
       <c r="B424" t="n">
-        <v>141293</v>
+        <v>172448</v>
       </c>
       <c r="C424" t="s">
         <v>3045</v>
@@ -43009,7 +43009,7 @@
         <v>11526</v>
       </c>
       <c r="B426" t="n">
-        <v>141294</v>
+        <v>172449</v>
       </c>
       <c r="C426" t="s">
         <v>3058</v>
@@ -43277,7 +43277,7 @@
         <v>11526</v>
       </c>
       <c r="B430" t="n">
-        <v>141295</v>
+        <v>172450</v>
       </c>
       <c r="C430" t="s">
         <v>3087</v>
@@ -43348,7 +43348,7 @@
         <v>11526</v>
       </c>
       <c r="B431" t="n">
-        <v>141296</v>
+        <v>172451</v>
       </c>
       <c r="C431" t="s">
         <v>3093</v>
@@ -43415,7 +43415,7 @@
         <v>11526</v>
       </c>
       <c r="B432" t="n">
-        <v>141297</v>
+        <v>172452</v>
       </c>
       <c r="C432" t="s">
         <v>3101</v>
@@ -43482,7 +43482,7 @@
         <v>11526</v>
       </c>
       <c r="B433" t="n">
-        <v>141298</v>
+        <v>172453</v>
       </c>
       <c r="C433" t="s">
         <v>3107</v>
@@ -43618,7 +43618,7 @@
         <v>11526</v>
       </c>
       <c r="B435" t="n">
-        <v>141299</v>
+        <v>172454</v>
       </c>
       <c r="C435" t="s">
         <v>3122</v>
@@ -43756,7 +43756,7 @@
         <v>11526</v>
       </c>
       <c r="B437" t="n">
-        <v>141300</v>
+        <v>172455</v>
       </c>
       <c r="C437" t="s">
         <v>3134</v>
@@ -43949,7 +43949,7 @@
         <v>11526</v>
       </c>
       <c r="B440" t="n">
-        <v>141301</v>
+        <v>172456</v>
       </c>
       <c r="C440" t="s">
         <v>3151</v>
@@ -44091,7 +44091,7 @@
         <v>11526</v>
       </c>
       <c r="B442" t="n">
-        <v>141302</v>
+        <v>172457</v>
       </c>
       <c r="C442" t="s">
         <v>3166</v>
@@ -44156,7 +44156,7 @@
         <v>11526</v>
       </c>
       <c r="B443" t="n">
-        <v>141303</v>
+        <v>172458</v>
       </c>
       <c r="C443" t="s">
         <v>3172</v>
@@ -44221,7 +44221,7 @@
         <v>11526</v>
       </c>
       <c r="B444" t="n">
-        <v>141304</v>
+        <v>172459</v>
       </c>
       <c r="C444" t="s">
         <v>3177</v>
@@ -44282,7 +44282,7 @@
         <v>11526</v>
       </c>
       <c r="B445" t="n">
-        <v>141305</v>
+        <v>172460</v>
       </c>
       <c r="C445" t="s">
         <v>3183</v>
@@ -44353,7 +44353,7 @@
         <v>11526</v>
       </c>
       <c r="B446" t="n">
-        <v>141306</v>
+        <v>172461</v>
       </c>
       <c r="C446" t="s">
         <v>3188</v>
@@ -44489,7 +44489,7 @@
         <v>11526</v>
       </c>
       <c r="B448" t="n">
-        <v>141307</v>
+        <v>172462</v>
       </c>
       <c r="C448" t="s">
         <v>3200</v>
@@ -44556,7 +44556,7 @@
         <v>11526</v>
       </c>
       <c r="B449" t="n">
-        <v>141308</v>
+        <v>172463</v>
       </c>
       <c r="C449" t="s">
         <v>3206</v>
@@ -44761,7 +44761,7 @@
         <v>11526</v>
       </c>
       <c r="B452" t="n">
-        <v>141309</v>
+        <v>172464</v>
       </c>
       <c r="C452" t="s">
         <v>3223</v>
@@ -44828,7 +44828,7 @@
         <v>11526</v>
       </c>
       <c r="B453" t="n">
-        <v>141310</v>
+        <v>172465</v>
       </c>
       <c r="C453" t="s">
         <v>3230</v>
@@ -44889,7 +44889,7 @@
         <v>11526</v>
       </c>
       <c r="B454" t="n">
-        <v>141311</v>
+        <v>172466</v>
       </c>
       <c r="C454" t="s">
         <v>3236</v>
@@ -45031,7 +45031,7 @@
         <v>11526</v>
       </c>
       <c r="B456" t="n">
-        <v>141312</v>
+        <v>172467</v>
       </c>
       <c r="C456" t="s">
         <v>3248</v>
@@ -45173,7 +45173,7 @@
         <v>11526</v>
       </c>
       <c r="B458" t="n">
-        <v>141313</v>
+        <v>172468</v>
       </c>
       <c r="C458" t="s">
         <v>3258</v>
@@ -45234,7 +45234,7 @@
         <v>11526</v>
       </c>
       <c r="B459" t="n">
-        <v>141314</v>
+        <v>172469</v>
       </c>
       <c r="C459" t="s">
         <v>3264</v>
@@ -45299,7 +45299,7 @@
         <v>11526</v>
       </c>
       <c r="B460" t="n">
-        <v>141315</v>
+        <v>172470</v>
       </c>
       <c r="C460" t="s">
         <v>3272</v>
@@ -45441,7 +45441,7 @@
         <v>11526</v>
       </c>
       <c r="B462" t="n">
-        <v>141316</v>
+        <v>172471</v>
       </c>
       <c r="C462" t="s">
         <v>3285</v>
@@ -45512,7 +45512,7 @@
         <v>11526</v>
       </c>
       <c r="B463" t="n">
-        <v>141317</v>
+        <v>172472</v>
       </c>
       <c r="C463" t="s">
         <v>3290</v>
@@ -45642,7 +45642,7 @@
         <v>11526</v>
       </c>
       <c r="B465" t="n">
-        <v>141318</v>
+        <v>172473</v>
       </c>
       <c r="C465" t="s">
         <v>3301</v>
@@ -45780,7 +45780,7 @@
         <v>11526</v>
       </c>
       <c r="B467" t="n">
-        <v>141319</v>
+        <v>172474</v>
       </c>
       <c r="C467" t="s">
         <v>3313</v>
@@ -45845,7 +45845,7 @@
         <v>11526</v>
       </c>
       <c r="B468" t="n">
-        <v>141320</v>
+        <v>172475</v>
       </c>
       <c r="C468" t="s">
         <v>3322</v>
@@ -45991,7 +45991,7 @@
         <v>11526</v>
       </c>
       <c r="B470" t="n">
-        <v>141321</v>
+        <v>172476</v>
       </c>
       <c r="C470" t="s">
         <v>3336</v>
@@ -46066,7 +46066,7 @@
         <v>11526</v>
       </c>
       <c r="B471" t="n">
-        <v>141322</v>
+        <v>172477</v>
       </c>
       <c r="C471" t="s">
         <v>3345</v>
@@ -46206,7 +46206,7 @@
         <v>11526</v>
       </c>
       <c r="B473" t="n">
-        <v>141323</v>
+        <v>172478</v>
       </c>
       <c r="C473" t="s">
         <v>3360</v>
@@ -46273,7 +46273,7 @@
         <v>11526</v>
       </c>
       <c r="B474" t="n">
-        <v>141324</v>
+        <v>172479</v>
       </c>
       <c r="C474" t="s">
         <v>3367</v>
@@ -46409,7 +46409,7 @@
         <v>11526</v>
       </c>
       <c r="B476" t="n">
-        <v>141325</v>
+        <v>172480</v>
       </c>
       <c r="C476" t="s">
         <v>3378</v>
@@ -46681,7 +46681,7 @@
         <v>11526</v>
       </c>
       <c r="B480" t="n">
-        <v>141326</v>
+        <v>172481</v>
       </c>
       <c r="C480" t="s">
         <v>3408</v>
@@ -46752,7 +46752,7 @@
         <v>11526</v>
       </c>
       <c r="B481" t="n">
-        <v>141327</v>
+        <v>172482</v>
       </c>
       <c r="C481" t="s">
         <v>3416</v>
@@ -46892,7 +46892,7 @@
         <v>11526</v>
       </c>
       <c r="B483" t="n">
-        <v>141328</v>
+        <v>172483</v>
       </c>
       <c r="C483" t="s">
         <v>3435</v>
@@ -46959,7 +46959,7 @@
         <v>11526</v>
       </c>
       <c r="B484" t="n">
-        <v>141329</v>
+        <v>172484</v>
       </c>
       <c r="C484" t="s">
         <v>3441</v>
@@ -47093,7 +47093,7 @@
         <v>11526</v>
       </c>
       <c r="B486" t="n">
-        <v>141330</v>
+        <v>172485</v>
       </c>
       <c r="C486" t="s">
         <v>3456</v>
@@ -47239,7 +47239,7 @@
         <v>11526</v>
       </c>
       <c r="B488" t="n">
-        <v>141331</v>
+        <v>172486</v>
       </c>
       <c r="C488" t="s">
         <v>3468</v>
@@ -47296,7 +47296,7 @@
         <v>11526</v>
       </c>
       <c r="B489" t="n">
-        <v>141332</v>
+        <v>172487</v>
       </c>
       <c r="C489" t="s">
         <v>3474</v>
@@ -47363,7 +47363,7 @@
         <v>11526</v>
       </c>
       <c r="B490" t="n">
-        <v>141333</v>
+        <v>172488</v>
       </c>
       <c r="C490" t="s">
         <v>3481</v>
@@ -47562,7 +47562,7 @@
         <v>11526</v>
       </c>
       <c r="B493" t="n">
-        <v>141334</v>
+        <v>172489</v>
       </c>
       <c r="C493" t="s">
         <v>3498</v>
@@ -47700,7 +47700,7 @@
         <v>11526</v>
       </c>
       <c r="B495" t="n">
-        <v>141335</v>
+        <v>172490</v>
       </c>
       <c r="C495" t="s">
         <v>3511</v>
@@ -47907,7 +47907,7 @@
         <v>11526</v>
       </c>
       <c r="B498" t="n">
-        <v>141336</v>
+        <v>172491</v>
       </c>
       <c r="C498" t="s">
         <v>3529</v>
@@ -48106,7 +48106,7 @@
         <v>11526</v>
       </c>
       <c r="B501" t="n">
-        <v>141337</v>
+        <v>172492</v>
       </c>
       <c r="C501" t="s">
         <v>3546</v>
@@ -48177,7 +48177,7 @@
         <v>11526</v>
       </c>
       <c r="B502" t="n">
-        <v>141338</v>
+        <v>172493</v>
       </c>
       <c r="C502" t="s">
         <v>3553</v>
@@ -48319,7 +48319,7 @@
         <v>11526</v>
       </c>
       <c r="B504" t="n">
-        <v>141339</v>
+        <v>172494</v>
       </c>
       <c r="C504" t="s">
         <v>3564</v>
@@ -48461,7 +48461,7 @@
         <v>11526</v>
       </c>
       <c r="B506" t="n">
-        <v>141340</v>
+        <v>172495</v>
       </c>
       <c r="C506" t="s">
         <v>3574</v>
@@ -48597,7 +48597,7 @@
         <v>11526</v>
       </c>
       <c r="B508" t="n">
-        <v>141341</v>
+        <v>172496</v>
       </c>
       <c r="C508" t="s">
         <v>3588</v>
@@ -48729,7 +48729,7 @@
         <v>11526</v>
       </c>
       <c r="B510" t="n">
-        <v>141342</v>
+        <v>172497</v>
       </c>
       <c r="C510" t="s">
         <v>3599</v>
@@ -48800,7 +48800,7 @@
         <v>11526</v>
       </c>
       <c r="B511" t="n">
-        <v>141343</v>
+        <v>172498</v>
       </c>
       <c r="C511" t="s">
         <v>3605</v>
@@ -48871,7 +48871,7 @@
         <v>11526</v>
       </c>
       <c r="B512" t="n">
-        <v>141344</v>
+        <v>172499</v>
       </c>
       <c r="C512" t="s">
         <v>3610</v>
@@ -48942,7 +48942,7 @@
         <v>11526</v>
       </c>
       <c r="B513" t="n">
-        <v>141345</v>
+        <v>172500</v>
       </c>
       <c r="C513" t="s">
         <v>3617</v>
@@ -49013,7 +49013,7 @@
         <v>11526</v>
       </c>
       <c r="B514" t="n">
-        <v>141346</v>
+        <v>172501</v>
       </c>
       <c r="C514" t="s">
         <v>3624</v>
@@ -49074,7 +49074,7 @@
         <v>11526</v>
       </c>
       <c r="B515" t="n">
-        <v>141347</v>
+        <v>172502</v>
       </c>
       <c r="C515" t="s">
         <v>3631</v>
@@ -49139,7 +49139,7 @@
         <v>11526</v>
       </c>
       <c r="B516" t="n">
-        <v>141348</v>
+        <v>172503</v>
       </c>
       <c r="C516" t="s">
         <v>3638</v>
@@ -49419,7 +49419,7 @@
         <v>11526</v>
       </c>
       <c r="B520" t="n">
-        <v>141349</v>
+        <v>172504</v>
       </c>
       <c r="C520" t="s">
         <v>3662</v>
@@ -49561,7 +49561,7 @@
         <v>11526</v>
       </c>
       <c r="B522" t="n">
-        <v>141350</v>
+        <v>172505</v>
       </c>
       <c r="C522" t="s">
         <v>3674</v>
@@ -49622,7 +49622,7 @@
         <v>11526</v>
       </c>
       <c r="B523" t="n">
-        <v>141351</v>
+        <v>172506</v>
       </c>
       <c r="C523" t="s">
         <v>3681</v>
@@ -49687,7 +49687,7 @@
         <v>11526</v>
       </c>
       <c r="B524" t="n">
-        <v>141352</v>
+        <v>172507</v>
       </c>
       <c r="C524" t="s">
         <v>3686</v>
@@ -49754,7 +49754,7 @@
         <v>11526</v>
       </c>
       <c r="B525" t="n">
-        <v>141353</v>
+        <v>172508</v>
       </c>
       <c r="C525" t="s">
         <v>3693</v>
@@ -49815,7 +49815,7 @@
         <v>11526</v>
       </c>
       <c r="B526" t="n">
-        <v>141354</v>
+        <v>172509</v>
       </c>
       <c r="C526" t="s">
         <v>3700</v>
@@ -49947,7 +49947,7 @@
         <v>11526</v>
       </c>
       <c r="B528" t="n">
-        <v>141355</v>
+        <v>172510</v>
       </c>
       <c r="C528" t="s">
         <v>3712</v>
@@ -50012,7 +50012,7 @@
         <v>11526</v>
       </c>
       <c r="B529" t="n">
-        <v>141356</v>
+        <v>172511</v>
       </c>
       <c r="C529" t="s">
         <v>3718</v>
@@ -50154,7 +50154,7 @@
         <v>11526</v>
       </c>
       <c r="B531" t="n">
-        <v>141357</v>
+        <v>172512</v>
       </c>
       <c r="C531" t="s">
         <v>3729</v>
@@ -50367,7 +50367,7 @@
         <v>11526</v>
       </c>
       <c r="B534" t="n">
-        <v>141358</v>
+        <v>172513</v>
       </c>
       <c r="C534" t="s">
         <v>3746</v>
@@ -50432,7 +50432,7 @@
         <v>11526</v>
       </c>
       <c r="B535" t="n">
-        <v>141359</v>
+        <v>172514</v>
       </c>
       <c r="C535" t="s">
         <v>3753</v>
@@ -50915,7 +50915,7 @@
         <v>11526</v>
       </c>
       <c r="B542" t="n">
-        <v>141360</v>
+        <v>172515</v>
       </c>
       <c r="C542" t="s">
         <v>3794</v>
@@ -50990,7 +50990,7 @@
         <v>11526</v>
       </c>
       <c r="B543" t="n">
-        <v>141361</v>
+        <v>172516</v>
       </c>
       <c r="C543" t="s">
         <v>3803</v>
@@ -51061,7 +51061,7 @@
         <v>11526</v>
       </c>
       <c r="B544" t="n">
-        <v>141362</v>
+        <v>172517</v>
       </c>
       <c r="C544" t="s">
         <v>3809</v>
@@ -51132,7 +51132,7 @@
         <v>11526</v>
       </c>
       <c r="B545" t="n">
-        <v>141363</v>
+        <v>172518</v>
       </c>
       <c r="C545" t="s">
         <v>3814</v>
@@ -51276,7 +51276,7 @@
         <v>11526</v>
       </c>
       <c r="B547" t="n">
-        <v>141364</v>
+        <v>172519</v>
       </c>
       <c r="C547" t="s">
         <v>3829</v>
@@ -51552,7 +51552,7 @@
         <v>11526</v>
       </c>
       <c r="B551" t="n">
-        <v>141290</v>
+        <v>141155</v>
       </c>
       <c r="C551" t="s">
         <v>3026</v>
@@ -51619,7 +51619,7 @@
         <v>11526</v>
       </c>
       <c r="B552" t="n">
-        <v>141365</v>
+        <v>172520</v>
       </c>
       <c r="C552" t="s">
         <v>3858</v>
@@ -51684,7 +51684,7 @@
         <v>11526</v>
       </c>
       <c r="B553" t="n">
-        <v>141366</v>
+        <v>172521</v>
       </c>
       <c r="C553" t="s">
         <v>3865</v>
@@ -51759,7 +51759,7 @@
         <v>11526</v>
       </c>
       <c r="B554" t="n">
-        <v>141367</v>
+        <v>172522</v>
       </c>
       <c r="C554" t="s">
         <v>3873</v>
@@ -51830,7 +51830,7 @@
         <v>11526</v>
       </c>
       <c r="B555" t="n">
-        <v>141368</v>
+        <v>172523</v>
       </c>
       <c r="C555" t="s">
         <v>3879</v>
@@ -51891,7 +51891,7 @@
         <v>11526</v>
       </c>
       <c r="B556" t="n">
-        <v>141369</v>
+        <v>172524</v>
       </c>
       <c r="C556" t="s">
         <v>3885</v>
@@ -52246,7 +52246,7 @@
         <v>11526</v>
       </c>
       <c r="B561" t="n">
-        <v>141370</v>
+        <v>172525</v>
       </c>
       <c r="C561" t="s">
         <v>3917</v>
@@ -52382,7 +52382,7 @@
         <v>11526</v>
       </c>
       <c r="B563" t="n">
-        <v>141371</v>
+        <v>172526</v>
       </c>
       <c r="C563" t="s">
         <v>3929</v>
@@ -52733,7 +52733,7 @@
         <v>11526</v>
       </c>
       <c r="B568" t="n">
-        <v>141372</v>
+        <v>172527</v>
       </c>
       <c r="C568" t="s">
         <v>3959</v>
@@ -52944,7 +52944,7 @@
         <v>11526</v>
       </c>
       <c r="B571" t="n">
-        <v>141373</v>
+        <v>172528</v>
       </c>
       <c r="C571" t="s">
         <v>3975</v>
@@ -53080,7 +53080,7 @@
         <v>11526</v>
       </c>
       <c r="B573" t="n">
-        <v>141374</v>
+        <v>172529</v>
       </c>
       <c r="C573" t="s">
         <v>3987</v>
@@ -53145,7 +53145,7 @@
         <v>11526</v>
       </c>
       <c r="B574" t="n">
-        <v>141375</v>
+        <v>172530</v>
       </c>
       <c r="C574" t="s">
         <v>3994</v>
@@ -53216,7 +53216,7 @@
         <v>11526</v>
       </c>
       <c r="B575" t="n">
-        <v>141376</v>
+        <v>172531</v>
       </c>
       <c r="C575" t="s">
         <v>4001</v>
@@ -53354,7 +53354,7 @@
         <v>11526</v>
       </c>
       <c r="B577" t="n">
-        <v>141377</v>
+        <v>172532</v>
       </c>
       <c r="C577" t="s">
         <v>4014</v>
@@ -53421,7 +53421,7 @@
         <v>11526</v>
       </c>
       <c r="B578" t="n">
-        <v>141378</v>
+        <v>172533</v>
       </c>
       <c r="C578" t="s">
         <v>4020</v>
@@ -53837,7 +53837,7 @@
         <v>11526</v>
       </c>
       <c r="B584" t="n">
-        <v>141379</v>
+        <v>172534</v>
       </c>
       <c r="C584" t="s">
         <v>4053</v>
@@ -53908,7 +53908,7 @@
         <v>11526</v>
       </c>
       <c r="B585" t="n">
-        <v>141380</v>
+        <v>172535</v>
       </c>
       <c r="C585" t="s">
         <v>4059</v>
@@ -53969,7 +53969,7 @@
         <v>11526</v>
       </c>
       <c r="B586" t="n">
-        <v>141381</v>
+        <v>172536</v>
       </c>
       <c r="C586" t="s">
         <v>4065</v>
@@ -54178,7 +54178,7 @@
         <v>11526</v>
       </c>
       <c r="B589" t="n">
-        <v>141382</v>
+        <v>172537</v>
       </c>
       <c r="C589" t="s">
         <v>4081</v>
@@ -54324,7 +54324,7 @@
         <v>11526</v>
       </c>
       <c r="B591" t="n">
-        <v>141383</v>
+        <v>172538</v>
       </c>
       <c r="C591" t="s">
         <v>4095</v>
@@ -54527,7 +54527,7 @@
         <v>11526</v>
       </c>
       <c r="B594" t="n">
-        <v>141384</v>
+        <v>172539</v>
       </c>
       <c r="C594" t="s">
         <v>4116</v>
@@ -54598,7 +54598,7 @@
         <v>11526</v>
       </c>
       <c r="B595" t="n">
-        <v>141385</v>
+        <v>172540</v>
       </c>
       <c r="C595" t="s">
         <v>4124</v>
@@ -54740,7 +54740,7 @@
         <v>11526</v>
       </c>
       <c r="B597" t="n">
-        <v>141386</v>
+        <v>172541</v>
       </c>
       <c r="C597" t="s">
         <v>4135</v>
@@ -54811,7 +54811,7 @@
         <v>11526</v>
       </c>
       <c r="B598" t="n">
-        <v>141387</v>
+        <v>172542</v>
       </c>
       <c r="C598" t="s">
         <v>4141</v>
@@ -54882,7 +54882,7 @@
         <v>11526</v>
       </c>
       <c r="B599" t="n">
-        <v>141388</v>
+        <v>172543</v>
       </c>
       <c r="C599" t="s">
         <v>4148</v>
@@ -54953,7 +54953,7 @@
         <v>11526</v>
       </c>
       <c r="B600" t="n">
-        <v>141389</v>
+        <v>172544</v>
       </c>
       <c r="C600" t="s">
         <v>4154</v>
@@ -55024,7 +55024,7 @@
         <v>11526</v>
       </c>
       <c r="B601" t="n">
-        <v>141390</v>
+        <v>172545</v>
       </c>
       <c r="C601" t="s">
         <v>4160</v>
@@ -55095,7 +55095,7 @@
         <v>11526</v>
       </c>
       <c r="B602" t="n">
-        <v>141391</v>
+        <v>172546</v>
       </c>
       <c r="C602" t="s">
         <v>4166</v>
@@ -55166,7 +55166,7 @@
         <v>11526</v>
       </c>
       <c r="B603" t="n">
-        <v>141392</v>
+        <v>172547</v>
       </c>
       <c r="C603" t="s">
         <v>4172</v>
@@ -55237,7 +55237,7 @@
         <v>11526</v>
       </c>
       <c r="B604" t="n">
-        <v>141393</v>
+        <v>172548</v>
       </c>
       <c r="C604" t="s">
         <v>4179</v>
